--- a/Excel_Results/YX_C.xlsx
+++ b/Excel_Results/YX_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Model_</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -616,72 +616,7 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>t_value_k_C</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_k_N</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_k_O</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_k_d</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_YX_CO2</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_YX_O2</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
           <t>t_value_YX_C</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_YX_N</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_Xmax</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_mu_max</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_pH_LL</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_pH_UL</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_I_val</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>t_value_O2_sat</t>
         </is>
       </c>
     </row>
@@ -763,28 +698,15 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Run_2</t>
+          <t>Model2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5619348507340022</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -804,107 +726,68 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>0.2007189412768443</v>
+        <v>0.200767505126583</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2046083412353877</v>
+        <v>0.2046578461235455</v>
       </c>
       <c r="V3" t="n">
-        <v>17.92037407663716</v>
+        <v>17.92604995921369</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3812664147546149</v>
+        <v>0.4248263748452549</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1673346467308197</v>
+        <v>0.1864527495882853</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.997027848068908</v>
+        <v>7.290600700927325</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06422717661026836</v>
+        <v>0.06422355857024478</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5063222237396831</v>
+        <v>0.5062937016378719</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.511859652880473</v>
+        <v>6.511507269009203</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1260188189101898</v>
+        <v>0.1260217073942395</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1595174922913794</v>
+        <v>0.1595211486003031</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.448098015831541</v>
+        <v>1.448258001907745</v>
       </c>
       <c r="AF3" t="n">
-        <v>-104.8420536879057</v>
+        <v>-99.16430457356321</v>
       </c>
       <c r="AG3" t="n">
-        <v>-103.2585347494496</v>
+        <v>-97.58078563510711</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2267476820950884</v>
+        <v>0.2453523874394228</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.03257719527453028</v>
+        <v>0.03525016248384142</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.969339898354521</v>
+        <v>8.294103982764494</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0006791245077593296</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2.575442332635574e-05</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.005682161627066562</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.521609050624541</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>436.0573490226549</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.006154921702019546</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>174.1784793651972</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>442.925676249627</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>942.8385660842125</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.002488278729380062</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.0001446937087917822</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>3.414094753768863</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>8.810345069174626e-05</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.9666042854661261</v>
+        <v>180.0840091539749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Run_3</t>
+          <t>Model3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6317913174340839</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -924,72 +807,59 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>0.2008022492748496</v>
+        <v>0.200767505126583</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2046932635211226</v>
+        <v>0.2046578461235455</v>
       </c>
       <c r="V4" t="n">
-        <v>17.93013254618846</v>
+        <v>17.92604995921369</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4661624075662067</v>
+        <v>0.4248263748452549</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2045947892879159</v>
+        <v>0.1864527495882853</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.645364934319414</v>
+        <v>7.290600700927325</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06422095015171768</v>
+        <v>0.06422355857024478</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5062731386871275</v>
+        <v>0.5062937016378719</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.511253187313032</v>
+        <v>6.511507269009203</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.126023672344709</v>
+        <v>0.1260217073942395</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1595236358793785</v>
+        <v>0.1595211486003031</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.448370780352665</v>
+        <v>1.448258001907745</v>
       </c>
       <c r="AF4" t="n">
-        <v>-94.03869437450058</v>
+        <v>-99.16430457356321</v>
       </c>
       <c r="AG4" t="n">
-        <v>-92.45517543604447</v>
+        <v>-97.58078563510711</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2634555133088873</v>
+        <v>0.2453523874394228</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.03785106698297376</v>
+        <v>0.03525016248384142</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.633780362043391</v>
-      </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>171.0021468047402</v>
-      </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
+        <v>8.294103982764494</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>180.0840091539749</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
